--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>607239.7296211212</v>
+        <v>530912.2266011845</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12492523.80646216</v>
+        <v>12492523.80646217</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>124.0808356869335</v>
+        <v>14.20883983626073</v>
       </c>
     </row>
     <row r="4">
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>92.95466700954542</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -977,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>54.55992862305439</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>118.3634851578964</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="9">
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.002943156505903</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>224.0120249334811</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1308,49 +1308,49 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>260.1025909519716</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="F11" t="n">
-        <v>375.9976405446762</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>119.3215129143207</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>30.18313514887905</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>375.9976405446762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.7225182406118</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>166.8501821880469</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>199.1159643940868</v>
+        <v>164.5876290898577</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9242640564797</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>148.1452106958276</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.30713092635</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.10284781979159</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>1.318715230032434</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="G14" t="n">
-        <v>375.9976405446762</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>85.20944302644153</v>
+        <v>119.3215129143207</v>
       </c>
       <c r="S14" t="n">
-        <v>197.9384856083914</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.9670669480894</v>
+        <v>211.8572088774302</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3067488280459</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>375.9976405446763</v>
       </c>
     </row>
     <row r="15">
@@ -1691,13 +1691,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.0833231908847</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>84.00298383577505</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>166.8501821880469</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9242640564797</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>48.19170887294352</v>
+        <v>67.49563516350756</v>
       </c>
     </row>
     <row r="16">
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>60.7985407977185</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>148.8904737762557</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>77.93683158240823</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.102847819791534</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>52.11411575496466</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>85.42957511242888</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>67.17737911999787</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>172.2574567236103</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>140.2343831124413</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>162.5776147681365</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>347.8702891689283</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>250.7480019143706</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -2374,19 +2374,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>62.75282290401047</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.3704989394268</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I27" t="n">
         <v>61.42221998250818</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2715,28 +2715,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>25.9322380811392</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>63.11667081024547</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>117.833098342877</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H30" t="n">
         <v>104.3883541553076</v>
@@ -2921,7 +2921,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T30" t="n">
         <v>196.8897623984489</v>
@@ -2955,25 +2955,25 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>46.8080776936207</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>126.0386425038326</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>190.2534544642833</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I33" t="n">
         <v>61.42221998250818</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>92.00803688215797</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>216.6993815150876</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>68.53712775585173</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>285.5453800016779</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="G37" t="n">
-        <v>81.25819606329408</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>90.35697730768484</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>197.4083929851553</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I39" t="n">
         <v>61.42221998250819</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>116.4814587683028</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="G41" t="n">
-        <v>375.9976405446761</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>351.7023731187434</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>331.1787217917508</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>74.30012622450286</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
         <v>225.8879277888686</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>139.8229182098234</v>
       </c>
     </row>
     <row r="43">
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.38122376111774</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.4526127311942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>337.4452616579582</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>11.57356597750666</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>375.9976405446763</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4067,13 +4067,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,13 +4109,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>32.24231832574468</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>144.0917669195869</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>52.13544610837975</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4179,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C2" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="C2" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>193.7341723913397</v>
+        <v>546.3373467878552</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>371.8843175067282</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>487.2836868729568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>487.2836868729568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X3" t="n">
-        <v>487.2836868729568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y3" t="n">
-        <v>361.9495094114078</v>
+        <v>714.5526838079231</v>
       </c>
     </row>
     <row r="4">
@@ -4512,19 +4512,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>634.6640077999109</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
-        <v>634.6640077999109</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>485.7295981386596</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>326.4921431332041</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
         <v>19.28114311021272</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>844.4980795935692</v>
       </c>
       <c r="V6" t="n">
-        <v>634.6640077999109</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="W6" t="n">
-        <v>634.6640077999109</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X6" t="n">
-        <v>634.6640077999109</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y6" t="n">
-        <v>634.6640077999109</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4746,31 +4746,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>224.7171143937231</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C9" t="n">
-        <v>224.7171143937231</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D9" t="n">
-        <v>224.7171143937231</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E9" t="n">
-        <v>224.7171143937231</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F9" t="n">
-        <v>224.7171143937231</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4892,7 +4892,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4913,22 +4913,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>432.4774131586771</v>
+        <v>636.61285340344</v>
       </c>
       <c r="V9" t="n">
-        <v>432.4774131586771</v>
+        <v>401.4607451716973</v>
       </c>
       <c r="W9" t="n">
-        <v>432.4774131586771</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X9" t="n">
-        <v>432.4774131586771</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y9" t="n">
-        <v>224.7171143937231</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -4998,16 +4998,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>409.8754077533481</v>
+        <v>789.6710042631222</v>
       </c>
       <c r="C11" t="n">
-        <v>409.8754077533481</v>
+        <v>789.6710042631222</v>
       </c>
       <c r="D11" t="n">
-        <v>409.8754077533481</v>
+        <v>789.6710042631222</v>
       </c>
       <c r="E11" t="n">
-        <v>409.8754077533481</v>
+        <v>409.8754077533482</v>
       </c>
       <c r="F11" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="G11" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="H11" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I11" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J11" t="n">
         <v>59.11146216633551</v>
       </c>
       <c r="K11" t="n">
-        <v>223.3671854680952</v>
+        <v>223.3671854680953</v>
       </c>
       <c r="L11" t="n">
-        <v>479.4175622507496</v>
+        <v>479.4175622507497</v>
       </c>
       <c r="M11" t="n">
-        <v>780.9294875202288</v>
+        <v>780.9294875202289</v>
       </c>
       <c r="N11" t="n">
         <v>1072.688193415768</v>
@@ -5065,28 +5065,28 @@
         <v>1503.990562178705</v>
       </c>
       <c r="R11" t="n">
-        <v>1383.463781457169</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="S11" t="n">
-        <v>1383.463781457169</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="T11" t="n">
-        <v>1383.463781457169</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="U11" t="n">
-        <v>1383.463781457169</v>
+        <v>1473.502546876807</v>
       </c>
       <c r="V11" t="n">
-        <v>1052.400894113598</v>
+        <v>1142.439659533236</v>
       </c>
       <c r="W11" t="n">
-        <v>1052.400894113598</v>
+        <v>789.6710042631222</v>
       </c>
       <c r="X11" t="n">
-        <v>1052.400894113598</v>
+        <v>789.6710042631222</v>
       </c>
       <c r="Y11" t="n">
-        <v>672.6052976038245</v>
+        <v>789.6710042631222</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>287.4451957223577</v>
+        <v>204.5328405247011</v>
       </c>
       <c r="C12" t="n">
-        <v>287.4451957223577</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="D12" t="n">
-        <v>287.4451957223577</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="E12" t="n">
-        <v>287.4451957223577</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="F12" t="n">
-        <v>140.9106377492426</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="G12" t="n">
-        <v>140.9106377492426</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="H12" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I12" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J12" t="n">
-        <v>53.67748396344816</v>
+        <v>53.67748396344819</v>
       </c>
       <c r="K12" t="n">
-        <v>220.6305083385341</v>
+        <v>220.6305083385342</v>
       </c>
       <c r="L12" t="n">
-        <v>506.5238491805472</v>
+        <v>506.5238491805474</v>
       </c>
       <c r="M12" t="n">
-        <v>506.5238491805472</v>
+        <v>859.8412372973576</v>
       </c>
       <c r="N12" t="n">
-        <v>859.8412372973573</v>
+        <v>859.8412372973576</v>
       </c>
       <c r="O12" t="n">
         <v>1169.882348717273</v>
@@ -5147,25 +5147,25 @@
         <v>1503.990562178705</v>
       </c>
       <c r="S12" t="n">
-        <v>1335.455024615021</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="T12" t="n">
-        <v>1134.327787853317</v>
+        <v>1337.74043178491</v>
       </c>
       <c r="U12" t="n">
-        <v>1134.327787853317</v>
+        <v>1109.534104455132</v>
       </c>
       <c r="V12" t="n">
-        <v>899.1756796215745</v>
+        <v>874.3819962233895</v>
       </c>
       <c r="W12" t="n">
-        <v>644.938322893373</v>
+        <v>620.1446394951879</v>
       </c>
       <c r="X12" t="n">
-        <v>437.0868226878401</v>
+        <v>412.2931392896551</v>
       </c>
       <c r="Y12" t="n">
-        <v>287.4451957223577</v>
+        <v>204.5328405247011</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="C13" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="D13" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="E13" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="F13" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="G13" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="H13" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I13" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J13" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="K13" t="n">
-        <v>33.12323397401384</v>
+        <v>33.12323397401386</v>
       </c>
       <c r="L13" t="n">
-        <v>92.54420185816616</v>
+        <v>92.54420185816622</v>
       </c>
       <c r="M13" t="n">
-        <v>165.584404152042</v>
+        <v>165.5844041520421</v>
       </c>
       <c r="N13" t="n">
-        <v>242.3224901101017</v>
+        <v>242.3224901101019</v>
       </c>
       <c r="O13" t="n">
-        <v>297.1862373970054</v>
+        <v>297.1862373970055</v>
       </c>
       <c r="P13" t="n">
-        <v>320.6109689772937</v>
+        <v>320.6109689772939</v>
       </c>
       <c r="Q13" t="n">
-        <v>320.6109689772937</v>
+        <v>320.6109689772939</v>
       </c>
       <c r="R13" t="n">
-        <v>320.6109689772937</v>
+        <v>320.6109689772939</v>
       </c>
       <c r="S13" t="n">
-        <v>320.6109689772937</v>
+        <v>320.6109689772939</v>
       </c>
       <c r="T13" t="n">
-        <v>320.6109689772937</v>
+        <v>320.6109689772939</v>
       </c>
       <c r="U13" t="n">
-        <v>31.41184682946545</v>
+        <v>320.6109689772939</v>
       </c>
       <c r="V13" t="n">
-        <v>31.41184682946545</v>
+        <v>319.4969812805347</v>
       </c>
       <c r="W13" t="n">
-        <v>31.41184682946545</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="X13" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="Y13" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>409.8754077533481</v>
+        <v>789.6710042631222</v>
       </c>
       <c r="C14" t="n">
-        <v>409.8754077533481</v>
+        <v>789.6710042631222</v>
       </c>
       <c r="D14" t="n">
-        <v>409.8754077533481</v>
+        <v>789.6710042631222</v>
       </c>
       <c r="E14" t="n">
-        <v>409.8754077533481</v>
+        <v>409.8754077533482</v>
       </c>
       <c r="F14" t="n">
-        <v>409.8754077533481</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="G14" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="H14" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I14" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J14" t="n">
-        <v>59.11146216633566</v>
+        <v>59.11146216633551</v>
       </c>
       <c r="K14" t="n">
-        <v>223.3671854680953</v>
+        <v>223.3671854680952</v>
       </c>
       <c r="L14" t="n">
         <v>479.4175622507497</v>
@@ -5302,28 +5302,28 @@
         <v>1503.990562178705</v>
       </c>
       <c r="R14" t="n">
-        <v>1417.920417707552</v>
+        <v>1383.463781457169</v>
       </c>
       <c r="S14" t="n">
-        <v>1217.982553456651</v>
+        <v>1383.463781457169</v>
       </c>
       <c r="T14" t="n">
-        <v>994.7834959333288</v>
+        <v>1169.466600772896</v>
       </c>
       <c r="U14" t="n">
-        <v>740.9382950969188</v>
+        <v>1169.466600772896</v>
       </c>
       <c r="V14" t="n">
-        <v>409.8754077533481</v>
+        <v>1169.466600772896</v>
       </c>
       <c r="W14" t="n">
-        <v>409.8754077533481</v>
+        <v>1169.466600772896</v>
       </c>
       <c r="X14" t="n">
-        <v>409.8754077533481</v>
+        <v>1169.466600772896</v>
       </c>
       <c r="Y14" t="n">
-        <v>409.8754077533481</v>
+        <v>789.6710042631222</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>797.7072663876387</v>
+        <v>343.000843747817</v>
       </c>
       <c r="C15" t="n">
-        <v>623.2542371065117</v>
+        <v>168.54781446669</v>
       </c>
       <c r="D15" t="n">
-        <v>474.3198274452605</v>
+        <v>168.54781446669</v>
       </c>
       <c r="E15" t="n">
-        <v>315.082372439805</v>
+        <v>168.54781446669</v>
       </c>
       <c r="F15" t="n">
-        <v>168.5478144666899</v>
+        <v>168.54781446669</v>
       </c>
       <c r="G15" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="H15" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I15" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J15" t="n">
-        <v>30.0798112435741</v>
+        <v>53.67748396344818</v>
       </c>
       <c r="K15" t="n">
-        <v>30.0798112435741</v>
+        <v>220.6305083385341</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9731520855873</v>
+        <v>347.1981669631934</v>
       </c>
       <c r="M15" t="n">
-        <v>589.8795286752652</v>
+        <v>719.435831102423</v>
       </c>
       <c r="N15" t="n">
-        <v>962.1171928144947</v>
+        <v>1091.673495241653</v>
       </c>
       <c r="O15" t="n">
-        <v>1272.15830423441</v>
+        <v>1401.714606661568</v>
       </c>
       <c r="P15" t="n">
-        <v>1503.990562178705</v>
+        <v>1401.714606661568</v>
       </c>
       <c r="Q15" t="n">
         <v>1503.990562178705</v>
       </c>
       <c r="R15" t="n">
-        <v>1503.990562178705</v>
+        <v>1419.13906335469</v>
       </c>
       <c r="S15" t="n">
-        <v>1503.990562178705</v>
+        <v>1250.603525791006</v>
       </c>
       <c r="T15" t="n">
-        <v>1503.990562178705</v>
+        <v>1250.603525791006</v>
       </c>
       <c r="U15" t="n">
-        <v>1503.990562178705</v>
+        <v>1022.397198461229</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.838453946962</v>
+        <v>787.2450902294861</v>
       </c>
       <c r="W15" t="n">
-        <v>1014.601097218761</v>
+        <v>787.2450902294861</v>
       </c>
       <c r="X15" t="n">
-        <v>1014.601097218761</v>
+        <v>579.3935900239533</v>
       </c>
       <c r="Y15" t="n">
-        <v>965.9226034077067</v>
+        <v>511.216180767885</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>320.6109689772937</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="C16" t="n">
-        <v>320.6109689772937</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="D16" t="n">
-        <v>320.6109689772937</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="E16" t="n">
-        <v>320.6109689772937</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="F16" t="n">
-        <v>320.6109689772937</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="G16" t="n">
-        <v>320.6109689772937</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="H16" t="n">
-        <v>259.1983015048508</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I16" t="n">
-        <v>108.803883549037</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J16" t="n">
-        <v>30.0798112435741</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="K16" t="n">
-        <v>33.12323397401384</v>
+        <v>33.12323397401386</v>
       </c>
       <c r="L16" t="n">
-        <v>92.54420185816616</v>
+        <v>92.54420185816622</v>
       </c>
       <c r="M16" t="n">
-        <v>165.584404152042</v>
+        <v>165.5844041520421</v>
       </c>
       <c r="N16" t="n">
-        <v>242.3224901101017</v>
+        <v>242.3224901101019</v>
       </c>
       <c r="O16" t="n">
-        <v>297.1862373970054</v>
+        <v>297.1862373970055</v>
       </c>
       <c r="P16" t="n">
-        <v>320.6109689772937</v>
+        <v>320.6109689772939</v>
       </c>
       <c r="Q16" t="n">
-        <v>320.6109689772937</v>
+        <v>320.6109689772939</v>
       </c>
       <c r="R16" t="n">
-        <v>320.6109689772937</v>
+        <v>319.4969812805347</v>
       </c>
       <c r="S16" t="n">
-        <v>320.6109689772937</v>
+        <v>319.4969812805347</v>
       </c>
       <c r="T16" t="n">
-        <v>320.6109689772937</v>
+        <v>319.4969812805347</v>
       </c>
       <c r="U16" t="n">
-        <v>320.6109689772937</v>
+        <v>319.4969812805347</v>
       </c>
       <c r="V16" t="n">
-        <v>320.6109689772937</v>
+        <v>319.4969812805347</v>
       </c>
       <c r="W16" t="n">
-        <v>320.6109689772937</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="X16" t="n">
-        <v>320.6109689772937</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="Y16" t="n">
-        <v>320.6109689772937</v>
+        <v>30.07981124357411</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1957.780595683986</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C17" t="n">
-        <v>1588.818078743575</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D17" t="n">
-        <v>1230.552380136824</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E17" t="n">
-        <v>844.7641275385799</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F17" t="n">
-        <v>433.7782227489724</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G17" t="n">
-        <v>433.7782227489724</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H17" t="n">
-        <v>106.5835027849752</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
         <v>881.2824271224072</v>
@@ -5548,19 +5548,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2610.856590904657</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2279.793703561087</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.380435748108</v>
+        <v>1927.025048290972</v>
       </c>
       <c r="X17" t="n">
-        <v>2344.380435748108</v>
+        <v>1553.559290029893</v>
       </c>
       <c r="Y17" t="n">
-        <v>2344.380435748108</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5633,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>290.7987205870804</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T19" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U19" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V19" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694735</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1168.064026826587</v>
+        <v>1717.152892125119</v>
       </c>
       <c r="C20" t="n">
-        <v>799.1015098861748</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="D20" t="n">
-        <v>799.1015098861748</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E20" t="n">
-        <v>799.1015098861748</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G20" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.48357412947</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="W20" t="n">
-        <v>1309.714918859356</v>
+        <v>2090.618650386199</v>
       </c>
       <c r="X20" t="n">
-        <v>1168.064026826587</v>
+        <v>1717.152892125119</v>
       </c>
       <c r="Y20" t="n">
-        <v>1168.064026826587</v>
+        <v>1717.152892125119</v>
       </c>
     </row>
     <row r="21">
@@ -5828,46 +5828,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5946,16 +5946,16 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X22" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.1627947174721</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1229.941371236149</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="C23" t="n">
-        <v>1229.941371236149</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="D23" t="n">
-        <v>871.6756726293982</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E23" t="n">
-        <v>871.6756726293982</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F23" t="n">
-        <v>460.6897678397906</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G23" t="n">
-        <v>460.6897678397906</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5995,13 +5995,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6022,19 +6022,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V23" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W23" t="n">
-        <v>1993.54646147304</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X23" t="n">
-        <v>1620.08070321196</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y23" t="n">
-        <v>1229.941371236149</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6071,22 +6071,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6153,40 +6153,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X25" t="n">
         <v>53.94298182036445</v>
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.9054987607761</v>
+        <v>1074.547708327363</v>
       </c>
       <c r="C26" t="n">
-        <v>53.94298182036445</v>
+        <v>1074.547708327363</v>
       </c>
       <c r="D26" t="n">
-        <v>53.94298182036445</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6259,19 +6259,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.752638628377</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V26" t="n">
-        <v>1893.689751284806</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="W26" t="n">
-        <v>1540.921096014692</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="X26" t="n">
-        <v>1167.455337753612</v>
+        <v>1851.286880367296</v>
       </c>
       <c r="Y26" t="n">
-        <v>809.505338824898</v>
+        <v>1461.147548391485</v>
       </c>
     </row>
     <row r="27">
@@ -6281,73 +6281,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C28" t="n">
-        <v>701.9348043264956</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D28" t="n">
-        <v>551.8181649141599</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E28" t="n">
-        <v>551.8181649141599</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1353.10866026757</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="C29" t="n">
-        <v>984.1461433271581</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D29" t="n">
-        <v>984.1461433271581</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E29" t="n">
-        <v>598.3578907289138</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>598.3578907289138</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6490,25 +6490,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V29" t="n">
-        <v>2465.942913862886</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W29" t="n">
-        <v>2113.174258592771</v>
+        <v>1973.399515517736</v>
       </c>
       <c r="X29" t="n">
-        <v>1739.708500331692</v>
+        <v>1599.933757256656</v>
       </c>
       <c r="Y29" t="n">
-        <v>1739.708500331692</v>
+        <v>1209.794425280844</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6545,22 +6545,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6569,16 +6569,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2697.149091018222</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="C31" t="n">
-        <v>2697.149091018222</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="D31" t="n">
-        <v>2547.032451605887</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="E31" t="n">
-        <v>2399.119358023494</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="F31" t="n">
-        <v>2252.229410525583</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="G31" t="n">
-        <v>2252.229410525583</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="H31" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W31" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X31" t="n">
-        <v>2697.149091018222</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y31" t="n">
-        <v>2697.149091018222</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>439.7312344186087</v>
+        <v>1689.643533783874</v>
       </c>
       <c r="C32" t="n">
-        <v>439.7312344186087</v>
+        <v>1689.643533783874</v>
       </c>
       <c r="D32" t="n">
-        <v>439.7312344186087</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036445</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6727,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2273.767707333307</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>1942.704819989736</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W32" t="n">
-        <v>1589.936164719622</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X32" t="n">
-        <v>1216.470406458542</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y32" t="n">
-        <v>826.3310744827304</v>
+        <v>1816.955293888756</v>
       </c>
     </row>
     <row r="33">
@@ -6761,10 +6761,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
         <v>359.3385232961342</v>
@@ -6779,25 +6779,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
         <v>53.94298182036445</v>
@@ -6888,22 +6888,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1331.061315312042</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C35" t="n">
-        <v>962.0987983716302</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="D35" t="n">
-        <v>603.8330997648798</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="E35" t="n">
-        <v>534.603677789272</v>
+        <v>753.3585633793437</v>
       </c>
       <c r="F35" t="n">
-        <v>534.603677789272</v>
+        <v>342.3726585897361</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>342.3726585897361</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2057.295728843236</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>1704.527073573122</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X35" t="n">
-        <v>1331.061315312042</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y35" t="n">
-        <v>1331.061315312042</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C37" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D37" t="n">
-        <v>578.0123447940985</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E37" t="n">
-        <v>430.0992512117053</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F37" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2107.607341885688</v>
+        <v>1317.927233509</v>
       </c>
       <c r="C38" t="n">
-        <v>2107.607341885688</v>
+        <v>948.9647165685883</v>
       </c>
       <c r="D38" t="n">
-        <v>1749.341643278937</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E38" t="n">
-        <v>1363.553390680693</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036444</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V38" t="n">
-        <v>2497.746673861499</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W38" t="n">
-        <v>2497.746673861499</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X38" t="n">
-        <v>2497.746673861499</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y38" t="n">
-        <v>2107.607341885688</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7253,49 +7253,49 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2169.853036130063</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C40" t="n">
-        <v>2169.853036130063</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D40" t="n">
-        <v>2169.853036130063</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E40" t="n">
-        <v>2169.853036130063</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632152</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W40" t="n">
-        <v>2579.49105185832</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X40" t="n">
-        <v>2351.501500960303</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y40" t="n">
-        <v>2351.501500960303</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>409.875407753348</v>
+        <v>1169.466600772896</v>
       </c>
       <c r="C41" t="n">
-        <v>409.875407753348</v>
+        <v>1169.466600772896</v>
       </c>
       <c r="D41" t="n">
-        <v>409.875407753348</v>
+        <v>1169.466600772896</v>
       </c>
       <c r="E41" t="n">
-        <v>409.875407753348</v>
+        <v>789.6710042631222</v>
       </c>
       <c r="F41" t="n">
-        <v>409.875407753348</v>
+        <v>409.8754077533482</v>
       </c>
       <c r="G41" t="n">
-        <v>30.07981124357409</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="H41" t="n">
-        <v>30.07981124357409</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I41" t="n">
-        <v>30.07981124357409</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J41" t="n">
         <v>145.8476674765238</v>
@@ -7417,16 +7417,16 @@
         <v>440.0984784965223</v>
       </c>
       <c r="L41" t="n">
-        <v>812.3361426357517</v>
+        <v>812.3361426357519</v>
       </c>
       <c r="M41" t="n">
-        <v>1184.573806774981</v>
+        <v>848.2740646358832</v>
       </c>
       <c r="N41" t="n">
-        <v>1478.484867963308</v>
+        <v>889.4073081647502</v>
       </c>
       <c r="O41" t="n">
-        <v>1503.990562178705</v>
+        <v>1198.142322030142</v>
       </c>
       <c r="P41" t="n">
         <v>1503.990562178705</v>
@@ -7435,28 +7435,28 @@
         <v>1503.990562178705</v>
       </c>
       <c r="R41" t="n">
-        <v>1448.961872709198</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="S41" t="n">
-        <v>1448.961872709198</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="T41" t="n">
-        <v>1448.961872709198</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="U41" t="n">
-        <v>1448.961872709198</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="V41" t="n">
-        <v>1117.898985365627</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="W41" t="n">
-        <v>765.130330095513</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="X41" t="n">
-        <v>409.875407753348</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="Y41" t="n">
-        <v>409.875407753348</v>
+        <v>1169.466600772896</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>279.583473074704</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="C42" t="n">
-        <v>105.130443793577</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="D42" t="n">
-        <v>105.130443793577</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="E42" t="n">
-        <v>105.130443793577</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="F42" t="n">
-        <v>105.130443793577</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="G42" t="n">
-        <v>30.07981124357409</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="H42" t="n">
-        <v>30.07981124357409</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I42" t="n">
-        <v>30.07981124357409</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J42" t="n">
-        <v>105.3369736437039</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="K42" t="n">
-        <v>105.3369736437039</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="L42" t="n">
-        <v>477.5746377829333</v>
+        <v>366.3108970997255</v>
       </c>
       <c r="M42" t="n">
-        <v>573.2228736226677</v>
+        <v>738.548561238955</v>
       </c>
       <c r="N42" t="n">
-        <v>945.4605377618972</v>
+        <v>1110.786225378185</v>
       </c>
       <c r="O42" t="n">
-        <v>995.6727646982788</v>
+        <v>1483.023889517414</v>
       </c>
       <c r="P42" t="n">
-        <v>1331.917578313108</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="Q42" t="n">
         <v>1503.990562178705</v>
       </c>
       <c r="R42" t="n">
-        <v>1503.990562178705</v>
+        <v>1453.77719159053</v>
       </c>
       <c r="S42" t="n">
-        <v>1345.817589822621</v>
+        <v>1295.604219234446</v>
       </c>
       <c r="T42" t="n">
-        <v>1345.817589822621</v>
+        <v>1096.725671357225</v>
       </c>
       <c r="U42" t="n">
-        <v>1117.64796579346</v>
+        <v>868.5560473280649</v>
       </c>
       <c r="V42" t="n">
-        <v>1117.64796579346</v>
+        <v>633.4039390963221</v>
       </c>
       <c r="W42" t="n">
-        <v>863.4106090652588</v>
+        <v>379.1665823681205</v>
       </c>
       <c r="X42" t="n">
-        <v>655.5591088597259</v>
+        <v>171.3150821625877</v>
       </c>
       <c r="Y42" t="n">
-        <v>447.798810094772</v>
+        <v>30.07981124357411</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.07981124357409</v>
+        <v>449.581325423757</v>
       </c>
       <c r="C43" t="n">
-        <v>30.07981124357409</v>
+        <v>449.581325423757</v>
       </c>
       <c r="D43" t="n">
-        <v>30.07981124357409</v>
+        <v>299.4646860114212</v>
       </c>
       <c r="E43" t="n">
-        <v>30.07981124357409</v>
+        <v>199.0796115052417</v>
       </c>
       <c r="F43" t="n">
-        <v>30.07981124357409</v>
+        <v>199.0796115052417</v>
       </c>
       <c r="G43" t="n">
-        <v>30.07981124357409</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="H43" t="n">
-        <v>30.07981124357409</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I43" t="n">
-        <v>30.07981124357409</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07981124357409</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="K43" t="n">
-        <v>86.38200430984222</v>
+        <v>86.38200430984224</v>
       </c>
       <c r="L43" t="n">
         <v>213.9558618710006</v>
@@ -7602,19 +7602,19 @@
         <v>704.2658136296438</v>
       </c>
       <c r="U43" t="n">
-        <v>415.0922032842118</v>
+        <v>704.2658136296438</v>
       </c>
       <c r="V43" t="n">
-        <v>415.0922032842118</v>
+        <v>449.581325423757</v>
       </c>
       <c r="W43" t="n">
-        <v>415.0922032842118</v>
+        <v>449.581325423757</v>
       </c>
       <c r="X43" t="n">
-        <v>187.1026523861944</v>
+        <v>449.581325423757</v>
       </c>
       <c r="Y43" t="n">
-        <v>30.07981124357409</v>
+        <v>449.581325423757</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1096.193217439084</v>
+        <v>750.7292074078514</v>
       </c>
       <c r="C44" t="n">
-        <v>727.2307004986719</v>
+        <v>409.8754077533482</v>
       </c>
       <c r="D44" t="n">
-        <v>368.9650018919214</v>
+        <v>409.8754077533482</v>
       </c>
       <c r="E44" t="n">
-        <v>368.9650018919214</v>
+        <v>409.8754077533482</v>
       </c>
       <c r="F44" t="n">
-        <v>368.9650018919214</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="G44" t="n">
-        <v>368.9650018919214</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="H44" t="n">
-        <v>41.77028192792426</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I44" t="n">
-        <v>30.07981124357409</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J44" t="n">
         <v>145.8476674765238</v>
       </c>
       <c r="K44" t="n">
-        <v>145.8476674765238</v>
+        <v>440.0984784965223</v>
       </c>
       <c r="L44" t="n">
-        <v>518.0853316157531</v>
+        <v>812.3361426357519</v>
       </c>
       <c r="M44" t="n">
-        <v>890.3229957549825</v>
+        <v>1184.573806774981</v>
       </c>
       <c r="N44" t="n">
-        <v>979.2953668125051</v>
+        <v>1478.484867963308</v>
       </c>
       <c r="O44" t="n">
-        <v>1351.533030951734</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="P44" t="n">
-        <v>1351.533030951734</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="Q44" t="n">
         <v>1503.990562178705</v>
       </c>
       <c r="R44" t="n">
-        <v>1448.961872709198</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="S44" t="n">
-        <v>1448.961872709198</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="T44" t="n">
-        <v>1448.961872709198</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="U44" t="n">
-        <v>1448.961872709198</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="V44" t="n">
-        <v>1448.961872709198</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="W44" t="n">
-        <v>1096.193217439084</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="X44" t="n">
-        <v>1096.193217439084</v>
+        <v>1130.524803917625</v>
       </c>
       <c r="Y44" t="n">
-        <v>1096.193217439084</v>
+        <v>750.7292074078514</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>728.139128912188</v>
+        <v>338.2516759102809</v>
       </c>
       <c r="C45" t="n">
-        <v>728.139128912188</v>
+        <v>338.2516759102809</v>
       </c>
       <c r="D45" t="n">
-        <v>579.2047192509367</v>
+        <v>189.3172662490296</v>
       </c>
       <c r="E45" t="n">
-        <v>419.9672642454811</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="F45" t="n">
-        <v>273.4327062723661</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="G45" t="n">
-        <v>135.5225932186322</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="H45" t="n">
-        <v>30.07981124357409</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I45" t="n">
-        <v>30.07981124357409</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J45" t="n">
-        <v>105.3369736437039</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="K45" t="n">
-        <v>360.5842940848024</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="L45" t="n">
-        <v>653.231598479682</v>
+        <v>366.3108970997255</v>
       </c>
       <c r="M45" t="n">
-        <v>716.330498925213</v>
+        <v>738.548561238955</v>
       </c>
       <c r="N45" t="n">
-        <v>795.5080844246463</v>
+        <v>1110.786225378185</v>
       </c>
       <c r="O45" t="n">
-        <v>1167.745748563876</v>
+        <v>1483.023889517414</v>
       </c>
       <c r="P45" t="n">
         <v>1503.990562178705</v>
@@ -7757,22 +7757,22 @@
         <v>1503.990562178705</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.990562178705</v>
+        <v>1471.422563869872</v>
       </c>
       <c r="U45" t="n">
-        <v>1503.990562178705</v>
+        <v>1243.252939840712</v>
       </c>
       <c r="V45" t="n">
-        <v>1503.990562178705</v>
+        <v>1008.100831608969</v>
       </c>
       <c r="W45" t="n">
-        <v>1249.753205450503</v>
+        <v>753.8634748807676</v>
       </c>
       <c r="X45" t="n">
-        <v>1041.90170524497</v>
+        <v>546.0119746752348</v>
       </c>
       <c r="Y45" t="n">
-        <v>896.3544659322561</v>
+        <v>338.2516759102809</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>674.8488944832658</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="C46" t="n">
-        <v>622.1868277071246</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="D46" t="n">
-        <v>472.0701882947889</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="E46" t="n">
-        <v>324.1570947123957</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="F46" t="n">
-        <v>324.1570947123957</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="G46" t="n">
-        <v>324.1570947123957</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="H46" t="n">
-        <v>166.4087221449259</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I46" t="n">
-        <v>30.07981124357409</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07981124357409</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="K46" t="n">
-        <v>86.38200430984222</v>
+        <v>86.38200430984224</v>
       </c>
       <c r="L46" t="n">
         <v>213.9558618710006</v>
@@ -7827,31 +7827,31 @@
         <v>704.2658136296438</v>
       </c>
       <c r="Q46" t="n">
-        <v>674.8488944832658</v>
+        <v>704.2658136296438</v>
       </c>
       <c r="R46" t="n">
-        <v>674.8488944832658</v>
+        <v>704.2658136296438</v>
       </c>
       <c r="S46" t="n">
-        <v>674.8488944832658</v>
+        <v>489.9773904478066</v>
       </c>
       <c r="T46" t="n">
-        <v>674.8488944832658</v>
+        <v>489.9773904478066</v>
       </c>
       <c r="U46" t="n">
-        <v>674.8488944832658</v>
+        <v>489.9773904478066</v>
       </c>
       <c r="V46" t="n">
-        <v>674.8488944832658</v>
+        <v>235.2929022419197</v>
       </c>
       <c r="W46" t="n">
-        <v>674.8488944832658</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="X46" t="n">
-        <v>674.8488944832658</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="Y46" t="n">
-        <v>674.8488944832658</v>
+        <v>30.07981124357411</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M3" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8075,7 +8075,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,10 +8309,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P6" t="n">
-        <v>238.6269471880057</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>76.20681558311837</v>
+        <v>433.0930662061589</v>
       </c>
       <c r="N12" t="n">
-        <v>420.5558470706039</v>
+        <v>63.66959644756332</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>102.255002290031</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>95.82581845188574</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>209.9053127606775</v>
       </c>
       <c r="M15" t="n">
-        <v>352.8799232494597</v>
+        <v>452.2044561277947</v>
       </c>
       <c r="N15" t="n">
         <v>439.6672369922396</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>84.28877071640696</v>
       </c>
       <c r="Q15" t="n">
-        <v>106.7682417589427</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9251,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,19 +11065,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>372.1227156515964</v>
+        <v>372.1227156515966</v>
       </c>
       <c r="M41" t="n">
-        <v>339.6967092314122</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>255.3311289489492</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>286.090221868682</v>
       </c>
       <c r="P41" t="n">
-        <v>12.86109185980291</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>58.3174843700358</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
         <v>6.639660809448827</v>
       </c>
       <c r="L42" t="n">
-        <v>338.1350382767496</v>
+        <v>301.7647571827314</v>
       </c>
       <c r="M42" t="n">
-        <v>32.87811655980157</v>
+        <v>312.2613774683825</v>
       </c>
       <c r="N42" t="n">
-        <v>296.0202814543395</v>
+        <v>296.0202814543396</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>325.2782193968161</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>36.26619292211501</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,25 +11299,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>26.92237113682285</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>372.1227156515964</v>
+        <v>372.1227156515966</v>
       </c>
       <c r="M44" t="n">
-        <v>339.6967092314122</v>
+        <v>339.6967092314123</v>
       </c>
       <c r="N44" t="n">
-        <v>48.32235103904603</v>
+        <v>255.3311289489495</v>
       </c>
       <c r="O44" t="n">
-        <v>350.2343130543763</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>12.86109185980291</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>58.3174843700358</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,25 +11375,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>6.639660809448827</v>
       </c>
       <c r="L45" t="n">
-        <v>257.7407355046792</v>
+        <v>301.7647571827314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>312.2613774683825</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>296.0202814543396</v>
       </c>
       <c r="O45" t="n">
-        <v>325.278219396816</v>
+        <v>325.2782193968161</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>36.26619292211501</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361.5500862927562</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22597,10 +22597,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22631,7 +22631,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22643,10 +22643,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22673,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22694,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>81.60186009037083</v>
+        <v>191.4738559410436</v>
       </c>
     </row>
     <row r="4">
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22801,10 +22801,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>246.5201351062217</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22846,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22865,22 +22865,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>90.50928377032949</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>107.5778969230785</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>68.60374760888197</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -22998,7 +22998,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>8.68397329741569</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="9">
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.3405740067047</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,22 +23153,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.929357147493732</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23196,7 +23196,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -23238,7 +23238,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.6312507115089</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,10 +23266,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>5.932729527585479</v>
       </c>
       <c r="F11" t="n">
-        <v>30.87840519703519</v>
+        <v>30.87840519703514</v>
       </c>
       <c r="G11" t="n">
         <v>414.8164365177525</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>119.3215129143206</v>
       </c>
       <c r="S11" t="n">
         <v>197.9384856083914</v>
@@ -23314,19 +23314,19 @@
         <v>220.9670669480894</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3067488280459</v>
+        <v>221.1236136791669</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.24029811137734</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23348,13 +23348,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.0833231908847</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.7225182406118</v>
       </c>
       <c r="I12" t="n">
         <v>80.4382000322985</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>84.00298383577507</v>
+        <v>84.00298383577505</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>166.8501821880469</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>34.52833530422913</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9242640564797</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>57.53748508147672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23439,7 +23439,7 @@
         <v>148.8904737762557</v>
       </c>
       <c r="J13" t="n">
-        <v>77.93683158240823</v>
+        <v>77.93683158240822</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.89596991376064</v>
+        <v>67.89596991376062</v>
       </c>
       <c r="R13" t="n">
         <v>167.4851187977079</v>
@@ -23472,16 +23472,16 @@
         <v>227.0135457339129</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.30713092635</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>251.0347955040364</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>224.3909401590047</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23503,13 +23503,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>5.932729527585479</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>30.87840519703514</v>
       </c>
       <c r="G14" t="n">
-        <v>38.81879597307631</v>
+        <v>414.8164365177525</v>
       </c>
       <c r="H14" t="n">
         <v>334.4944720263235</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>34.11206988787914</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>197.9384856083914</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>9.109858070659186</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3067488280459</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>10.24029811137729</v>
       </c>
     </row>
     <row r="15">
@@ -23579,13 +23579,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>84.00298383577507</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>166.8501821880469</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>199.1159643940868</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9242640564797</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.4909869043609</v>
+        <v>138.1870606137968</v>
       </c>
     </row>
     <row r="16">
@@ -23670,13 +23670,13 @@
         <v>167.7728414725427</v>
       </c>
       <c r="H16" t="n">
-        <v>99.48918759675838</v>
+        <v>160.2877283944769</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>148.8904737762557</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>77.93683158240822</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.89596991376064</v>
+        <v>67.89596991376062</v>
       </c>
       <c r="R16" t="n">
-        <v>167.4851187977079</v>
+        <v>166.3822709779164</v>
       </c>
       <c r="S16" t="n">
         <v>220.2150496069626</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>99.81720048989659</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23788,16 +23788,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>165.7945923958604</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23898,22 +23898,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>78.24366890293338</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>69.82361682150315</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>193.0154350473972</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>229.4967175660277</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.25436541380077</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>17.40260260207924</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>73.17477084998654</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24420,16 +24420,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>291.9302187166725</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.86743971662679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,28 +24603,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>141.3145830174886</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>350.6674992105495</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>231.407870374536</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,25 +24843,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>109.3628111481744</v>
+        <v>0.7182761106009821</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>256.695199159648</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>60.970713044006</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>64.16285195963718</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>45.199959188537</v>
@@ -25128,7 +25128,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>69.82361682150341</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>313.3932423164101</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>38.37739276267922</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,10 +25210,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="G37" t="n">
-        <v>86.05160619575683</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25368,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>264.3260643129981</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25447,19 +25447,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3438654849796</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>38.2851774626476</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25605,16 +25605,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>170.0415395682882</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25636,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>5.932729527585479</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>30.87840519703514</v>
       </c>
       <c r="G41" t="n">
-        <v>37.78652947611886</v>
+        <v>37.78652947611869</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25687,16 +25687,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>18.02872755972567</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>55.05921686430281</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25721,7 +25721,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>62.23088569869367</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>65.85977756748096</v>
       </c>
     </row>
     <row r="43">
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>47.05273888545143</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25842,19 +25842,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>63.13204062090063</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>27.82763011304939</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>30.87840519703514</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>140.3577502673546</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>10.24029811137729</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25955,13 +25955,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
         <v>61.42221998250819</v>
@@ -25997,13 +25997,13 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>164.6474440727043</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>61.59092885771744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26025,13 +26025,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>115.1113749902481</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
         <v>45.19995918853701</v>
@@ -26067,13 +26067,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
@@ -26082,10 +26082,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>83.36203824822891</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482282.7649563669</v>
+        <v>482282.7649563668</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>582988.3650925746</v>
+        <v>582988.3650925745</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>582988.3650925745</v>
+        <v>582988.3650925746</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>799344.5222872947</v>
+        <v>799344.5222872945</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>799344.5222872946</v>
+        <v>799344.5222872945</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>799344.5222872947</v>
+        <v>799344.5222872946</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>799344.5222872946</v>
+        <v>799344.5222872945</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>799344.5222872944</v>
+        <v>799344.5222872946</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>594062.8461191948</v>
+        <v>594062.8461191946</v>
       </c>
     </row>
   </sheetData>
@@ -26319,37 +26319,37 @@
         <v>157852.6389047657</v>
       </c>
       <c r="D2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="E2" t="n">
-        <v>195000.74694682</v>
+        <v>195000.7469468201</v>
       </c>
       <c r="F2" t="n">
-        <v>195000.7469468201</v>
+        <v>195000.7469468199</v>
       </c>
       <c r="G2" t="n">
         <v>274694.9795149696</v>
       </c>
       <c r="H2" t="n">
-        <v>274694.97951497</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="I2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="J2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="K2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="L2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="M2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="N2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="O2" t="n">
         <v>207611.920163758</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>137488.6096238094</v>
+        <v>137488.6096238095</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>281396.9420968512</v>
+        <v>281396.942096851</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>33638.39116882732</v>
+        <v>33638.39116882739</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58752.58249917301</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="C4" t="n">
         <v>58752.58249917302</v>
@@ -26432,13 +26432,13 @@
         <v>59848.32243696327</v>
       </c>
       <c r="G4" t="n">
-        <v>62518.47524617215</v>
+        <v>62518.47524617217</v>
       </c>
       <c r="H4" t="n">
         <v>62518.47524617217</v>
       </c>
       <c r="I4" t="n">
-        <v>62518.47524617216</v>
+        <v>62518.47524617217</v>
       </c>
       <c r="J4" t="n">
         <v>62518.47524617217</v>
@@ -26453,13 +26453,13 @@
         <v>62518.47524617217</v>
       </c>
       <c r="N4" t="n">
-        <v>62518.47524617217</v>
+        <v>62518.47524617216</v>
       </c>
       <c r="O4" t="n">
         <v>37085.71065074661</v>
       </c>
       <c r="P4" t="n">
-        <v>37085.71065074659</v>
+        <v>37085.71065074661</v>
       </c>
     </row>
     <row r="5">
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>31095.4684250488</v>
+        <v>31095.46842504881</v>
       </c>
       <c r="P5" t="n">
-        <v>31095.4684250488</v>
+        <v>31095.46842504881</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29950.64388971664</v>
+        <v>-42168.65450975711</v>
       </c>
       <c r="C6" t="n">
-        <v>50818.78764183106</v>
+        <v>38600.77702179059</v>
       </c>
       <c r="D6" t="n">
-        <v>50818.78764183103</v>
+        <v>38600.77702179062</v>
       </c>
       <c r="E6" t="n">
-        <v>-27833.93039262501</v>
+        <v>-38096.77743150474</v>
       </c>
       <c r="F6" t="n">
-        <v>109654.6792311845</v>
+        <v>99391.83219230465</v>
       </c>
       <c r="G6" t="n">
-        <v>-118451.9158914632</v>
+        <v>-124520.3296372821</v>
       </c>
       <c r="H6" t="n">
-        <v>162945.0262053884</v>
+        <v>156876.612459569</v>
       </c>
       <c r="I6" t="n">
-        <v>162945.0262053882</v>
+        <v>156876.612459569</v>
       </c>
       <c r="J6" t="n">
-        <v>99885.083606282</v>
+        <v>93816.66986046269</v>
       </c>
       <c r="K6" t="n">
-        <v>162945.0262053882</v>
+        <v>156876.6124595689</v>
       </c>
       <c r="L6" t="n">
-        <v>162945.0262053881</v>
+        <v>156876.6124595689</v>
       </c>
       <c r="M6" t="n">
-        <v>129306.6350365609</v>
+        <v>123238.2212907414</v>
       </c>
       <c r="N6" t="n">
-        <v>162945.0262053883</v>
+        <v>156876.6124595689</v>
       </c>
       <c r="O6" t="n">
-        <v>139430.7410879626</v>
+        <v>129831.6400078691</v>
       </c>
       <c r="P6" t="n">
-        <v>139430.7410879626</v>
+        <v>129831.6400078691</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>120.967373098899</v>
+        <v>120.9673730988991</v>
       </c>
       <c r="F3" t="n">
-        <v>120.967373098899</v>
+        <v>120.9673730988991</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
         <v>377.7436642170866</v>
@@ -26798,22 +26798,22 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>375.9976405446762</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="F4" t="n">
-        <v>375.9976405446762</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26822,16 +26822,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>375.9976405446761</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="P4" t="n">
-        <v>375.9976405446761</v>
+        <v>375.9976405446763</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>120.967373098899</v>
+        <v>120.9673730988991</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>256.7762911181877</v>
+        <v>256.7762911181874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>298.2896322098794</v>
+        <v>298.2896322098792</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>134.9833516670171</v>
+        <v>134.9833516670173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>298.2896322098794</v>
+        <v>298.2896322098792</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4863009973825082</v>
+        <v>0.4863009973825086</v>
       </c>
       <c r="H11" t="n">
-        <v>4.980330089443613</v>
+        <v>4.980330089443617</v>
       </c>
       <c r="I11" t="n">
-        <v>18.74811920158917</v>
+        <v>18.74811920158918</v>
       </c>
       <c r="J11" t="n">
-        <v>41.2741892765937</v>
+        <v>41.27418927659372</v>
       </c>
       <c r="K11" t="n">
-        <v>61.85931049579528</v>
+        <v>61.85931049579533</v>
       </c>
       <c r="L11" t="n">
-        <v>76.74194464444022</v>
+        <v>76.7419446444403</v>
       </c>
       <c r="M11" t="n">
-        <v>85.39020000664141</v>
+        <v>85.39020000664148</v>
       </c>
       <c r="N11" t="n">
-        <v>86.77190271545446</v>
+        <v>86.77190271545453</v>
       </c>
       <c r="O11" t="n">
-        <v>81.93624717273214</v>
+        <v>81.93624717273221</v>
       </c>
       <c r="P11" t="n">
-        <v>69.93069129985146</v>
+        <v>69.93069129985152</v>
       </c>
       <c r="Q11" t="n">
-        <v>52.51503683109037</v>
+        <v>52.51503683109041</v>
       </c>
       <c r="R11" t="n">
-        <v>30.54760502682901</v>
+        <v>30.54760502682903</v>
       </c>
       <c r="S11" t="n">
-        <v>11.08158397785392</v>
+        <v>11.08158397785393</v>
       </c>
       <c r="T11" t="n">
-        <v>2.128782616041931</v>
+        <v>2.128782616041932</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03890407979060065</v>
+        <v>0.03890407979060068</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2601939723259337</v>
+        <v>0.2601939723259339</v>
       </c>
       <c r="H12" t="n">
-        <v>2.512925995884676</v>
+        <v>2.512925995884678</v>
       </c>
       <c r="I12" t="n">
-        <v>8.958432819116579</v>
+        <v>8.958432819116586</v>
       </c>
       <c r="J12" t="n">
-        <v>24.5826243766357</v>
+        <v>24.58262437663572</v>
       </c>
       <c r="K12" t="n">
-        <v>42.01562052247326</v>
+        <v>42.01562052247329</v>
       </c>
       <c r="L12" t="n">
-        <v>56.49518684208487</v>
+        <v>56.49518684208491</v>
       </c>
       <c r="M12" t="n">
-        <v>65.92721833889995</v>
+        <v>65.9272183389</v>
       </c>
       <c r="N12" t="n">
-        <v>67.67211563576993</v>
+        <v>67.67211563576998</v>
       </c>
       <c r="O12" t="n">
-        <v>61.90676498581108</v>
+        <v>61.90676498581113</v>
       </c>
       <c r="P12" t="n">
-        <v>49.68563669792326</v>
+        <v>49.6856366979233</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.21353232707884</v>
+        <v>33.21353232707887</v>
       </c>
       <c r="R12" t="n">
-        <v>16.15485031686807</v>
+        <v>16.15485031686808</v>
       </c>
       <c r="S12" t="n">
-        <v>4.832988915790914</v>
+        <v>4.832988915790919</v>
       </c>
       <c r="T12" t="n">
-        <v>1.048764300734794</v>
+        <v>1.048764300734795</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01711802449512723</v>
+        <v>0.01711802449512724</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,46 +31910,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2181378859160474</v>
+        <v>0.2181378859160475</v>
       </c>
       <c r="H13" t="n">
-        <v>1.939444112962677</v>
+        <v>1.939444112962679</v>
       </c>
       <c r="I13" t="n">
-        <v>6.56000115100259</v>
+        <v>6.560001151002595</v>
       </c>
       <c r="J13" t="n">
-        <v>15.42234853426455</v>
+        <v>15.42234853426456</v>
       </c>
       <c r="K13" t="n">
-        <v>25.34365620006441</v>
+        <v>25.34365620006443</v>
       </c>
       <c r="L13" t="n">
-        <v>32.43115442064581</v>
+        <v>32.43115442064584</v>
       </c>
       <c r="M13" t="n">
-        <v>34.19410515318549</v>
+        <v>34.19410515318552</v>
       </c>
       <c r="N13" t="n">
-        <v>33.38104576022571</v>
+        <v>33.38104576022573</v>
       </c>
       <c r="O13" t="n">
-        <v>30.83279863838823</v>
+        <v>30.83279863838826</v>
       </c>
       <c r="P13" t="n">
-        <v>26.38278576570085</v>
+        <v>26.38278576570087</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.26607333793375</v>
+        <v>18.26607333793376</v>
       </c>
       <c r="R13" t="n">
-        <v>9.808272579461546</v>
+        <v>9.808272579461553</v>
       </c>
       <c r="S13" t="n">
-        <v>3.80154843000966</v>
+        <v>3.801548430009663</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9320436943685657</v>
+        <v>0.9320436943685665</v>
       </c>
       <c r="U13" t="n">
         <v>0.01189843014087533</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4863009973825082</v>
+        <v>0.4863009973825085</v>
       </c>
       <c r="H14" t="n">
-        <v>4.980330089443613</v>
+        <v>4.980330089443616</v>
       </c>
       <c r="I14" t="n">
-        <v>18.74811920158917</v>
+        <v>18.74811920158918</v>
       </c>
       <c r="J14" t="n">
-        <v>41.2741892765937</v>
+        <v>41.27418927659372</v>
       </c>
       <c r="K14" t="n">
-        <v>61.85931049579528</v>
+        <v>61.85931049579531</v>
       </c>
       <c r="L14" t="n">
-        <v>76.74194464444022</v>
+        <v>76.74194464444027</v>
       </c>
       <c r="M14" t="n">
-        <v>85.39020000664141</v>
+        <v>85.39020000664145</v>
       </c>
       <c r="N14" t="n">
-        <v>86.77190271545446</v>
+        <v>86.77190271545452</v>
       </c>
       <c r="O14" t="n">
-        <v>81.93624717273214</v>
+        <v>81.93624717273219</v>
       </c>
       <c r="P14" t="n">
-        <v>69.93069129985146</v>
+        <v>69.9306912998515</v>
       </c>
       <c r="Q14" t="n">
-        <v>52.51503683109037</v>
+        <v>52.5150368310904</v>
       </c>
       <c r="R14" t="n">
-        <v>30.54760502682901</v>
+        <v>30.54760502682903</v>
       </c>
       <c r="S14" t="n">
         <v>11.08158397785392</v>
       </c>
       <c r="T14" t="n">
-        <v>2.128782616041931</v>
+        <v>2.128782616041932</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03890407979060065</v>
+        <v>0.03890407979060067</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,43 +32068,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2601939723259337</v>
+        <v>0.2601939723259339</v>
       </c>
       <c r="H15" t="n">
-        <v>2.512925995884676</v>
+        <v>2.512925995884677</v>
       </c>
       <c r="I15" t="n">
-        <v>8.958432819116579</v>
+        <v>8.958432819116585</v>
       </c>
       <c r="J15" t="n">
-        <v>24.5826243766357</v>
+        <v>24.58262437663571</v>
       </c>
       <c r="K15" t="n">
-        <v>42.01562052247326</v>
+        <v>42.01562052247328</v>
       </c>
       <c r="L15" t="n">
-        <v>56.49518684208487</v>
+        <v>56.4951868420849</v>
       </c>
       <c r="M15" t="n">
-        <v>65.92721833889995</v>
+        <v>65.92721833889999</v>
       </c>
       <c r="N15" t="n">
-        <v>67.67211563576993</v>
+        <v>67.67211563576997</v>
       </c>
       <c r="O15" t="n">
-        <v>61.90676498581108</v>
+        <v>61.90676498581112</v>
       </c>
       <c r="P15" t="n">
-        <v>49.68563669792326</v>
+        <v>49.68563669792329</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.21353232707884</v>
+        <v>33.21353232707886</v>
       </c>
       <c r="R15" t="n">
         <v>16.15485031686807</v>
       </c>
       <c r="S15" t="n">
-        <v>4.832988915790914</v>
+        <v>4.832988915790917</v>
       </c>
       <c r="T15" t="n">
         <v>1.048764300734794</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2181378859160474</v>
+        <v>0.2181378859160475</v>
       </c>
       <c r="H16" t="n">
-        <v>1.939444112962677</v>
+        <v>1.939444112962678</v>
       </c>
       <c r="I16" t="n">
-        <v>6.56000115100259</v>
+        <v>6.560001151002594</v>
       </c>
       <c r="J16" t="n">
-        <v>15.42234853426455</v>
+        <v>15.42234853426456</v>
       </c>
       <c r="K16" t="n">
-        <v>25.34365620006441</v>
+        <v>25.34365620006442</v>
       </c>
       <c r="L16" t="n">
-        <v>32.43115442064581</v>
+        <v>32.43115442064583</v>
       </c>
       <c r="M16" t="n">
-        <v>34.19410515318549</v>
+        <v>34.19410515318551</v>
       </c>
       <c r="N16" t="n">
-        <v>33.38104576022571</v>
+        <v>33.38104576022572</v>
       </c>
       <c r="O16" t="n">
-        <v>30.83279863838823</v>
+        <v>30.83279863838825</v>
       </c>
       <c r="P16" t="n">
-        <v>26.38278576570085</v>
+        <v>26.38278576570086</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.26607333793375</v>
+        <v>18.26607333793376</v>
       </c>
       <c r="R16" t="n">
-        <v>9.808272579461546</v>
+        <v>9.808272579461551</v>
       </c>
       <c r="S16" t="n">
-        <v>3.80154843000966</v>
+        <v>3.801548430009662</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9320436943685657</v>
+        <v>0.9320436943685663</v>
       </c>
       <c r="U16" t="n">
         <v>0.01189843014087533</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N18" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N19" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M3" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34795,7 +34795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,10 +35029,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P6" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.32489992198118</v>
+        <v>29.32489992198121</v>
       </c>
       <c r="K11" t="n">
         <v>165.9148720219795</v>
       </c>
       <c r="L11" t="n">
-        <v>258.6367442249034</v>
+        <v>258.6367442249035</v>
       </c>
       <c r="M11" t="n">
-        <v>304.5575002722012</v>
+        <v>304.5575002722013</v>
       </c>
       <c r="N11" t="n">
-        <v>294.7057635308477</v>
+        <v>294.7057635308478</v>
       </c>
       <c r="O11" t="n">
         <v>232.6382170137908</v>
       </c>
       <c r="P11" t="n">
-        <v>160.4964037160645</v>
+        <v>160.4964037160646</v>
       </c>
       <c r="Q11" t="n">
-        <v>42.52433761654557</v>
+        <v>42.52433761654561</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>23.83603305037784</v>
+        <v>23.83603305037786</v>
       </c>
       <c r="K12" t="n">
         <v>168.6394185606929</v>
@@ -35497,10 +35497,10 @@
         <v>288.7811523656699</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>356.8862506230406</v>
       </c>
       <c r="N12" t="n">
-        <v>356.8862506230405</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>313.1728398180962</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>3.074164374181553</v>
+        <v>3.074164374181574</v>
       </c>
       <c r="L13" t="n">
-        <v>60.02117968096195</v>
+        <v>60.02117968096198</v>
       </c>
       <c r="M13" t="n">
-        <v>73.77798211502608</v>
+        <v>73.77798211502611</v>
       </c>
       <c r="N13" t="n">
-        <v>77.5132181394543</v>
+        <v>77.51321813945432</v>
       </c>
       <c r="O13" t="n">
-        <v>55.41792655242791</v>
+        <v>55.41792655242793</v>
       </c>
       <c r="P13" t="n">
-        <v>23.66134503059433</v>
+        <v>23.66134503059435</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.32489992198137</v>
+        <v>29.3248999219812</v>
       </c>
       <c r="K14" t="n">
         <v>165.9148720219795</v>
       </c>
       <c r="L14" t="n">
-        <v>258.6367442249034</v>
+        <v>258.6367442249035</v>
       </c>
       <c r="M14" t="n">
         <v>304.5575002722012</v>
       </c>
       <c r="N14" t="n">
-        <v>294.7057635308477</v>
+        <v>294.7057635308478</v>
       </c>
       <c r="O14" t="n">
         <v>232.6382170137908</v>
       </c>
       <c r="P14" t="n">
-        <v>160.4964037160645</v>
+        <v>160.4964037160646</v>
       </c>
       <c r="Q14" t="n">
-        <v>42.52433761654557</v>
+        <v>42.52433761654559</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>23.83603305037785</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>168.6394185606929</v>
       </c>
       <c r="L15" t="n">
-        <v>288.7811523656699</v>
+        <v>127.8461198228882</v>
       </c>
       <c r="M15" t="n">
-        <v>276.6731076663413</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="N15" t="n">
-        <v>375.9976405446762</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="O15" t="n">
         <v>313.1728398180962</v>
       </c>
       <c r="P15" t="n">
-        <v>234.1739979235302</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>103.3090459769064</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>3.074164374181553</v>
+        <v>3.074164374181567</v>
       </c>
       <c r="L16" t="n">
-        <v>60.02117968096195</v>
+        <v>60.02117968096197</v>
       </c>
       <c r="M16" t="n">
-        <v>73.77798211502608</v>
+        <v>73.77798211502611</v>
       </c>
       <c r="N16" t="n">
-        <v>77.5132181394543</v>
+        <v>77.51321813945432</v>
       </c>
       <c r="O16" t="n">
-        <v>55.41792655242791</v>
+        <v>55.41792655242793</v>
       </c>
       <c r="P16" t="n">
-        <v>23.66134503059433</v>
+        <v>23.66134503059435</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343415</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N19" t="n">
         <v>148.370846145888</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36691,10 +36691,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37165,10 +37165,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>375.9976405446761</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="M41" t="n">
-        <v>375.9976405446761</v>
+        <v>36.30093131326393</v>
       </c>
       <c r="N41" t="n">
-        <v>296.8798597861887</v>
+        <v>41.54873083723948</v>
       </c>
       <c r="O41" t="n">
-        <v>25.76332749029979</v>
+        <v>311.8535493589818</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>375.9976405446761</v>
+        <v>339.6273594506579</v>
       </c>
       <c r="M42" t="n">
-        <v>96.61437963609542</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="N42" t="n">
-        <v>375.9976405446761</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="O42" t="n">
-        <v>50.71942114786023</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>21.17845723362746</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>375.9976405446761</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="M44" t="n">
-        <v>375.9976405446761</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="N44" t="n">
-        <v>89.8710818762855</v>
+        <v>296.8798597861889</v>
       </c>
       <c r="O44" t="n">
-        <v>375.9976405446761</v>
+        <v>25.76332749029979</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>295.6033377726056</v>
+        <v>339.6273594506579</v>
       </c>
       <c r="M45" t="n">
-        <v>63.73626307629385</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="N45" t="n">
-        <v>79.97735909033668</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="O45" t="n">
-        <v>375.9976405446761</v>
+        <v>375.9976405446763</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>21.17845723362746</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
